--- a/biology/Botanique/Searsia_(plante)/Searsia_(plante).xlsx
+++ b/biology/Botanique/Searsia_(plante)/Searsia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Searsia est un genre de plantes de la famille des Anacardiaceae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Searsia est un genre de plantes de la famille des Anacardiaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (13 octobre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (13 octobre 2017) :
 Searsia acocksii (Moffett) Moffett
 Searsia acuminatissima (R.Fern. &amp; A.Fern.) Moffett
 Searsia albida (Schousb.) Moffett
@@ -623,7 +637,7 @@
 Searsia wildii (R.Fern. &amp; A.Fern.) Moffett
 Searsia wilmsii (Diels) Moffett
 Searsia zeyheri (Sond.) Moffett
-Selon GRIN            (13 octobre 2017)[4] :
+Selon GRIN            (13 octobre 2017) :
 Searsia burchellii (Sond. ex Engl.) Moffett
 Searsia ciliata (Licht. ex Schult.) A. J. Mill.
 Searsia dentata (Thunb.) F. A. Barkley
@@ -637,7 +651,7 @@
 Searsia tenuinervis (Engl.) Moffett
 Searsia tripartita (Ucria) Moffett
 Searsia undulata (Jacq.) T. S. Yi &amp; al.
-Selon The Plant List            (13 octobre 2017)[5] :
+Selon The Plant List            (13 octobre 2017) :
 Searsia acocksii (Moffett) Moffett
 Searsia albida (Schousb.) Moffett
 Searsia albomarginata (Sond.) Moffett
@@ -660,7 +674,7 @@
 Searsia tripartita (Ucria) Moffett
 Searsia undulata (Jacq.) T.S.Yi, A.J.Mill. &amp; J.Wen
 Searsia volkii (Suess.) Moffett
-Selon Tropicos                                           (13 octobre 2017)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Searsia acocksii (Moffett) Moffett
 Searsia albomarginata (Sond.) Moffett
 Searsia burchellii (Sond. ex Engl.) Moffett
